--- a/po_analysis_by_asin/B0B3SLT2NM_po_data.xlsx
+++ b/po_analysis_by_asin/B0B3SLT2NM_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,119 +452,119 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45327</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45341</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45348</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45362</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45376</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45439</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45446</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45453</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45460</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45474</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45481</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45488</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
@@ -572,33 +572,225 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45530</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45544</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45551</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45558</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B44" t="n">
         <v>6</v>
       </c>
     </row>
@@ -613,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,65 +827,129 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B17" t="n">
         <v>14</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0B3SLT2NM_po_data.xlsx
+++ b/po_analysis_by_asin/B0B3SLT2NM_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -821,7 +822,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -951,6 +952,761 @@
       </c>
       <c r="B17" t="n">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.465047091100585</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.721349448978684</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.218164305656335</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.625001418188198</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.01804076680148</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.927092067107399</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.9900171378953828</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.172845771710323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.351191174534009</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.194886776409616</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.04060641512677</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.318777761944245</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.78077949216098</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.251523822504959</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.168876378835268</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.253647348706609</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.081521224632676</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.987879919787845</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.025940352520969</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.244892600507168</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.062999375643345</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.612285268304145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.55495387297064</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9.268608687569362</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.7702631572198879</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.248348888377626</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.8080924491912328</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9.612903251837633</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.8016732486640376</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.629051059997119</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.4958653362484319</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9.705307688917165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.8056943643503841</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9.986534939633557</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.8737817424715502</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9.524553193613354</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.4913655528375346</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9.822134737033329</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.3319834905668708</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9.974806314997309</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.5217275112913795</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9.66501753804358</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.2174703840746353</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10.08708428910164</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.4006302943044324</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10.13517641306772</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.5308600339106324</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10.23443885149865</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5781504481159025</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10.36524025427234</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5937852114453425</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10.26390399272246</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4523599356231421</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10.69906202253646</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3030563720208921</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10.62497177155022</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4372757123584119</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10.37796343552764</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.4228230483939389</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10.74650401405752</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.07740841471863029</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10.99314531080965</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.611910875811399</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10.84254502623224</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6082174341513537</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11.33324047520678</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.041656044709551</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10.96369317452782</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.6328748998815669</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11.17911563923823</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.8520808473485088</v>
+      </c>
+      <c r="D37" t="n">
+        <v>11.20073191266569</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9361946908026789</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11.24634612896548</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.051645980356215</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11.514520408398</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.7802262421137881</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11.30865523763319</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.316691131025918</v>
+      </c>
+      <c r="D41" t="n">
+        <v>11.87239627363113</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.426147775412971</v>
+      </c>
+      <c r="D42" t="n">
+        <v>11.65585248234031</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.734500294860874</v>
+      </c>
+      <c r="D43" t="n">
+        <v>11.72536675531176</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.302928168755259</v>
+      </c>
+      <c r="D44" t="n">
+        <v>12.08571809683603</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.76683662131716</v>
+      </c>
+      <c r="D45" t="n">
+        <v>12.22635275699876</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.903092806050049</v>
+      </c>
+      <c r="D46" t="n">
+        <v>11.61692776415298</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.62548034270361</v>
+      </c>
+      <c r="D47" t="n">
+        <v>12.05904486838086</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.768310401034605</v>
+      </c>
+      <c r="D48" t="n">
+        <v>12.21229600812588</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.022860878857797</v>
+      </c>
+      <c r="D49" t="n">
+        <v>12.19034707586148</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.954442681885999</v>
+      </c>
+      <c r="D50" t="n">
+        <v>11.66021418720003</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.228444714654342</v>
+      </c>
+      <c r="D51" t="n">
+        <v>12.4392385851361</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>7</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.573883561082443</v>
+      </c>
+      <c r="D52" t="n">
+        <v>11.78525000976312</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0B3SLT2NM_po_data.xlsx
+++ b/po_analysis_by_asin/B0B3SLT2NM_po_data.xlsx
@@ -965,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,16 +984,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1002,12 +992,6 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>-1.465047091100585</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.721349448978684</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1016,12 +1000,6 @@
       <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>-1.218164305656335</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.625001418188198</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1030,12 +1008,6 @@
       <c r="B4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>-1.01804076680148</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.927092067107399</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1044,12 +1016,6 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>-0.9900171378953828</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.172845771710323</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1058,12 +1024,6 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
-        <v>-1.351191174534009</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.194886776409616</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1072,12 +1032,6 @@
       <c r="B7" t="n">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
-        <v>-1.04060641512677</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.318777761944245</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1086,12 +1040,6 @@
       <c r="B8" t="n">
         <v>4</v>
       </c>
-      <c r="C8" t="n">
-        <v>-0.78077949216098</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9.251523822504959</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1100,12 +1048,6 @@
       <c r="B9" t="n">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
-        <v>-1.168876378835268</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.253647348706609</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1114,12 +1056,6 @@
       <c r="B10" t="n">
         <v>4</v>
       </c>
-      <c r="C10" t="n">
-        <v>-1.081521224632676</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8.987879919787845</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1128,12 +1064,6 @@
       <c r="B11" t="n">
         <v>4</v>
       </c>
-      <c r="C11" t="n">
-        <v>-1.025940352520969</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9.244892600507168</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1142,12 +1072,6 @@
       <c r="B12" t="n">
         <v>4</v>
       </c>
-      <c r="C12" t="n">
-        <v>-1.062999375643345</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9.612285268304145</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1156,12 +1080,6 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" t="n">
-        <v>-0.55495387297064</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9.268608687569362</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1170,12 +1088,6 @@
       <c r="B14" t="n">
         <v>4</v>
       </c>
-      <c r="C14" t="n">
-        <v>-0.7702631572198879</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9.248348888377626</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1184,12 +1096,6 @@
       <c r="B15" t="n">
         <v>4</v>
       </c>
-      <c r="C15" t="n">
-        <v>-0.8080924491912328</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9.612903251837633</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1198,12 +1104,6 @@
       <c r="B16" t="n">
         <v>4</v>
       </c>
-      <c r="C16" t="n">
-        <v>-0.8016732486640376</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9.629051059997119</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1212,12 +1112,6 @@
       <c r="B17" t="n">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
-        <v>-0.4958653362484319</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9.705307688917165</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1226,12 +1120,6 @@
       <c r="B18" t="n">
         <v>5</v>
       </c>
-      <c r="C18" t="n">
-        <v>-0.8056943643503841</v>
-      </c>
-      <c r="D18" t="n">
-        <v>9.986534939633557</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1240,12 +1128,6 @@
       <c r="B19" t="n">
         <v>5</v>
       </c>
-      <c r="C19" t="n">
-        <v>-0.8737817424715502</v>
-      </c>
-      <c r="D19" t="n">
-        <v>9.524553193613354</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1254,12 +1136,6 @@
       <c r="B20" t="n">
         <v>5</v>
       </c>
-      <c r="C20" t="n">
-        <v>-0.4913655528375346</v>
-      </c>
-      <c r="D20" t="n">
-        <v>9.822134737033329</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1268,12 +1144,6 @@
       <c r="B21" t="n">
         <v>5</v>
       </c>
-      <c r="C21" t="n">
-        <v>-0.3319834905668708</v>
-      </c>
-      <c r="D21" t="n">
-        <v>9.974806314997309</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1282,12 +1152,6 @@
       <c r="B22" t="n">
         <v>5</v>
       </c>
-      <c r="C22" t="n">
-        <v>-0.5217275112913795</v>
-      </c>
-      <c r="D22" t="n">
-        <v>9.66501753804358</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1296,12 +1160,6 @@
       <c r="B23" t="n">
         <v>5</v>
       </c>
-      <c r="C23" t="n">
-        <v>-0.2174703840746353</v>
-      </c>
-      <c r="D23" t="n">
-        <v>10.08708428910164</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1310,12 +1168,6 @@
       <c r="B24" t="n">
         <v>5</v>
       </c>
-      <c r="C24" t="n">
-        <v>-0.4006302943044324</v>
-      </c>
-      <c r="D24" t="n">
-        <v>10.13517641306772</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1324,12 +1176,6 @@
       <c r="B25" t="n">
         <v>5</v>
       </c>
-      <c r="C25" t="n">
-        <v>-0.5308600339106324</v>
-      </c>
-      <c r="D25" t="n">
-        <v>10.23443885149865</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1338,12 +1184,6 @@
       <c r="B26" t="n">
         <v>5</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.5781504481159025</v>
-      </c>
-      <c r="D26" t="n">
-        <v>10.36524025427234</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1352,12 +1192,6 @@
       <c r="B27" t="n">
         <v>5</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.5937852114453425</v>
-      </c>
-      <c r="D27" t="n">
-        <v>10.26390399272246</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1366,12 +1200,6 @@
       <c r="B28" t="n">
         <v>5</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.4523599356231421</v>
-      </c>
-      <c r="D28" t="n">
-        <v>10.69906202253646</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1380,12 +1208,6 @@
       <c r="B29" t="n">
         <v>6</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.3030563720208921</v>
-      </c>
-      <c r="D29" t="n">
-        <v>10.62497177155022</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1394,12 +1216,6 @@
       <c r="B30" t="n">
         <v>6</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.4372757123584119</v>
-      </c>
-      <c r="D30" t="n">
-        <v>10.37796343552764</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1408,12 +1224,6 @@
       <c r="B31" t="n">
         <v>6</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.4228230483939389</v>
-      </c>
-      <c r="D31" t="n">
-        <v>10.74650401405752</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1422,12 +1232,6 @@
       <c r="B32" t="n">
         <v>6</v>
       </c>
-      <c r="C32" t="n">
-        <v>-0.07740841471863029</v>
-      </c>
-      <c r="D32" t="n">
-        <v>10.99314531080965</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1436,12 +1240,6 @@
       <c r="B33" t="n">
         <v>6</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.611910875811399</v>
-      </c>
-      <c r="D33" t="n">
-        <v>10.84254502623224</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1450,12 +1248,6 @@
       <c r="B34" t="n">
         <v>6</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.6082174341513537</v>
-      </c>
-      <c r="D34" t="n">
-        <v>11.33324047520678</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1464,12 +1256,6 @@
       <c r="B35" t="n">
         <v>6</v>
       </c>
-      <c r="C35" t="n">
-        <v>1.041656044709551</v>
-      </c>
-      <c r="D35" t="n">
-        <v>10.96369317452782</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1478,12 +1264,6 @@
       <c r="B36" t="n">
         <v>6</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.6328748998815669</v>
-      </c>
-      <c r="D36" t="n">
-        <v>11.17911563923823</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1492,12 +1272,6 @@
       <c r="B37" t="n">
         <v>6</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.8520808473485088</v>
-      </c>
-      <c r="D37" t="n">
-        <v>11.20073191266569</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1506,12 +1280,6 @@
       <c r="B38" t="n">
         <v>6</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.9361946908026789</v>
-      </c>
-      <c r="D38" t="n">
-        <v>11.24634612896548</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1520,12 +1288,6 @@
       <c r="B39" t="n">
         <v>6</v>
       </c>
-      <c r="C39" t="n">
-        <v>1.051645980356215</v>
-      </c>
-      <c r="D39" t="n">
-        <v>11.514520408398</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1534,12 +1296,6 @@
       <c r="B40" t="n">
         <v>6</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.7802262421137881</v>
-      </c>
-      <c r="D40" t="n">
-        <v>11.30865523763319</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1548,12 +1304,6 @@
       <c r="B41" t="n">
         <v>7</v>
       </c>
-      <c r="C41" t="n">
-        <v>1.316691131025918</v>
-      </c>
-      <c r="D41" t="n">
-        <v>11.87239627363113</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1562,12 +1312,6 @@
       <c r="B42" t="n">
         <v>7</v>
       </c>
-      <c r="C42" t="n">
-        <v>1.426147775412971</v>
-      </c>
-      <c r="D42" t="n">
-        <v>11.65585248234031</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1576,12 +1320,6 @@
       <c r="B43" t="n">
         <v>7</v>
       </c>
-      <c r="C43" t="n">
-        <v>1.734500294860874</v>
-      </c>
-      <c r="D43" t="n">
-        <v>11.72536675531176</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1590,12 +1328,6 @@
       <c r="B44" t="n">
         <v>7</v>
       </c>
-      <c r="C44" t="n">
-        <v>1.302928168755259</v>
-      </c>
-      <c r="D44" t="n">
-        <v>12.08571809683603</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1604,12 +1336,6 @@
       <c r="B45" t="n">
         <v>7</v>
       </c>
-      <c r="C45" t="n">
-        <v>1.76683662131716</v>
-      </c>
-      <c r="D45" t="n">
-        <v>12.22635275699876</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1618,12 +1344,6 @@
       <c r="B46" t="n">
         <v>7</v>
       </c>
-      <c r="C46" t="n">
-        <v>1.903092806050049</v>
-      </c>
-      <c r="D46" t="n">
-        <v>11.61692776415298</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1632,12 +1352,6 @@
       <c r="B47" t="n">
         <v>7</v>
       </c>
-      <c r="C47" t="n">
-        <v>1.62548034270361</v>
-      </c>
-      <c r="D47" t="n">
-        <v>12.05904486838086</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1646,12 +1360,6 @@
       <c r="B48" t="n">
         <v>7</v>
       </c>
-      <c r="C48" t="n">
-        <v>1.768310401034605</v>
-      </c>
-      <c r="D48" t="n">
-        <v>12.21229600812588</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1660,12 +1368,6 @@
       <c r="B49" t="n">
         <v>7</v>
       </c>
-      <c r="C49" t="n">
-        <v>2.022860878857797</v>
-      </c>
-      <c r="D49" t="n">
-        <v>12.19034707586148</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1674,12 +1376,6 @@
       <c r="B50" t="n">
         <v>7</v>
       </c>
-      <c r="C50" t="n">
-        <v>1.954442681885999</v>
-      </c>
-      <c r="D50" t="n">
-        <v>11.66021418720003</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1688,12 +1384,6 @@
       <c r="B51" t="n">
         <v>7</v>
       </c>
-      <c r="C51" t="n">
-        <v>2.228444714654342</v>
-      </c>
-      <c r="D51" t="n">
-        <v>12.4392385851361</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1701,12 +1391,6 @@
       </c>
       <c r="B52" t="n">
         <v>7</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.573883561082443</v>
-      </c>
-      <c r="D52" t="n">
-        <v>11.78525000976312</v>
       </c>
     </row>
   </sheetData>
